--- a/Sheets/Temperature Requirements.xlsx
+++ b/Sheets/Temperature Requirements.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B1753-C7C8-4EA4-A099-7119D4E990A2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zack/Documents/Stanford/AA236/Sheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>Payload</t>
   </si>
@@ -79,9 +89,6 @@
   </si>
   <si>
     <t>Battery</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>MCU</t>
@@ -270,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,20 +588,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>12</v>
       </c>
@@ -602,7 +609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>13</v>
       </c>
@@ -616,12 +623,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -638,7 +645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -655,7 +662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -672,12 +679,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -694,14 +701,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>-55</v>
@@ -716,9 +723,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>-55</v>
@@ -733,17 +740,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -754,9 +761,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <v>-55</v>
@@ -765,9 +772,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19">
         <v>-40</v>
@@ -776,20 +783,20 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
+      <c r="D22">
+        <v>-40</v>
+      </c>
+      <c r="E22">
+        <v>125</v>
       </c>
       <c r="F22">
         <v>-40</v>
@@ -798,42 +805,42 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
       </c>
       <c r="F29">
         <v>0.85</v>
@@ -848,12 +855,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30">
         <v>0.85</v>
@@ -869,12 +876,12 @@
         <v>0.27516666666666667</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
         <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
       </c>
       <c r="F31">
         <v>0.85</v>
@@ -890,12 +897,12 @@
         <v>0.27516666666666667</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32">
         <v>0.85</v>
@@ -910,111 +917,111 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
       <c r="D36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>1367</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <f>0.37*D37</f>
         <v>505.79</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" t="s">
         <v>69</v>
       </c>
-      <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
         <v>49</v>
       </c>
-      <c r="F44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
       <c r="I44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" t="s">
         <v>49</v>
       </c>
-      <c r="M44" t="s">
-        <v>37</v>
-      </c>
-      <c r="N44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45">
         <v>4.8535000000000002E-2</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M45">
         <f>7.5*$D$41</f>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46">
         <f>7.5*D41</f>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M46">
         <v>0.13</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f>$B$29</f>
         <v>Patch Antenna</v>
@@ -1030,69 +1037,69 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48">
         <v>0.06</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
         <v>52</v>
       </c>
-      <c r="P53" t="s">
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" t="s">
+        <v>48</v>
+      </c>
+      <c r="R55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T55" t="s">
+        <v>30</v>
+      </c>
+      <c r="V55" t="s">
+        <v>36</v>
+      </c>
+      <c r="X55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="P54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" t="s">
-        <v>26</v>
-      </c>
-      <c r="L55" t="s">
-        <v>56</v>
-      </c>
-      <c r="P55" t="s">
-        <v>49</v>
-      </c>
-      <c r="R55" t="s">
-        <v>53</v>
-      </c>
-      <c r="T55" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" t="s">
-        <v>37</v>
-      </c>
-      <c r="X55" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1120,7 @@
         <v>0.57650000000000001</v>
       </c>
       <c r="K56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L56">
         <f>F56*H56*J56</f>
@@ -1144,7 +1151,7 @@
         <v>0.57750000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B57" t="str">
         <f>$B$29</f>
         <v>Patch Antenna</v>
@@ -1170,7 +1177,7 @@
         <v>0.57750000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D58" t="str">
         <f>$B$39</f>
         <v>Earth Reflection</v>
@@ -1192,9 +1199,9 @@
         <v>1.264475</v>
       </c>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" t="str">
         <f>B37</f>
@@ -1217,29 +1224,29 @@
         <v>12.815624999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63">
         <v>806</v>
       </c>
       <c r="P63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R63">
         <v>806</v>
       </c>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>5</v>
       </c>
@@ -1253,85 +1260,85 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65">
         <v>1200</v>
       </c>
       <c r="P65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R65">
         <v>1200</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66">
         <v>312</v>
       </c>
       <c r="P66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R66">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D68">
         <f>(D66+D65+D64+D63)/1000</f>
         <v>3.3380000000000001</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R68">
         <f>(R66+R65+R64+R63)/1000</f>
         <v>3.3380000000000001</v>
       </c>
       <c r="S68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" t="str">
         <f>B56</f>
         <v>Solar Panels</v>
@@ -1356,9 +1363,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D73">
         <f>F46</f>
@@ -1369,7 +1376,7 @@
         <v>0.85</v>
       </c>
       <c r="P73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R73">
         <f>M45</f>
@@ -1380,179 +1387,179 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E75">
         <f>SUM(L56:L59)+D68</f>
         <v>56.244844392499999</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T75">
         <f>R68+Z56</f>
         <v>3.9155000000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E76">
         <f>5.67*10^-8</f>
         <v>5.6699999999999998E-8</v>
       </c>
       <c r="P76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T76">
         <f>E76</f>
         <v>5.6699999999999998E-8</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E77">
         <f>D72*F72+D73*F73</f>
         <v>8.2875000000000004E-2</v>
       </c>
       <c r="P77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T77">
         <f>R72*T72+R73*T73</f>
         <v>0.131325</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E79">
         <f>POWER(E75/(E76*E77), 1/4)</f>
         <v>330.76460511360722</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T79">
         <f>POWER(T75/(T76*T77), 1/4)</f>
         <v>151.43079068205125</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E80">
         <f>E79-273</f>
         <v>57.764605113607217</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T80">
         <f>T79-273</f>
         <v>-121.56920931794875</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="P82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T82">
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O84" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E85">
         <f>T75</f>
         <v>3.9155000000000002</v>
       </c>
       <c r="O85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R85">
         <f>E75</f>
         <v>56.244844392499999</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E86">
         <f>E77*E76*E79^4</f>
         <v>56.244844392499964</v>
       </c>
       <c r="O86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R86">
         <f>T75</f>
         <v>3.9155000000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E87">
         <f>$J$29*$L$29*$F$47+$J$30*$L$30*0.5*$T$77+$L$31*$J$31*0.5*$T$77+$L$32*$J$32*$F$46*2/($F$47+2*$F$46+$T$77)</f>
         <v>46.636631751379582</v>
       </c>
       <c r="O87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R87">
         <f>$J$29*$L$29*$F$47+$J$30*$L$30*0.5*$T$77+$L$31*$J$31*0.5*$T$77+$L$32*$J$32*$F$46*2/($F$47+2*$F$46+$T$77)</f>
         <v>46.636631751379582</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E88">
         <f>(E86-E85)/E87</f>
         <v>1.1220652613050681</v>
       </c>
       <c r="O88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R88">
         <f>(R86-R85)/R87</f>
         <v>-1.1220652613050688</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E90">
         <f>-1/E87</f>
         <v>-2.1442371853332191E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E92">
         <f>EXP(E90*5)</f>
         <v>0.89833533216359573</v>

--- a/Sheets/Temperature Requirements.xlsx
+++ b/Sheets/Temperature Requirements.xlsx
@@ -1,34 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zack/Documents/Stanford/AA236/Sheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015015B0-6050-7C45-B87E-E2B026F6B383}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -277,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,11 +579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,8 +1002,7 @@
         <v>45</v>
       </c>
       <c r="F46">
-        <f>7.5*D41</f>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I46" t="s">
         <v>59</v>
@@ -1213,7 +1203,7 @@
       </c>
       <c r="H59">
         <f>F46</f>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J59">
         <f>$H$32</f>
@@ -1221,7 +1211,7 @@
       </c>
       <c r="L59">
         <f>F59*H59*J59</f>
-        <v>12.815624999999999</v>
+        <v>4.7845000000000004</v>
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.2">
@@ -1369,7 +1359,7 @@
       </c>
       <c r="D73">
         <f>F46</f>
-        <v>3.7499999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F73">
         <f>F32</f>
@@ -1393,7 +1383,7 @@
       </c>
       <c r="E75">
         <f>SUM(L56:L59)+D68</f>
-        <v>56.244844392499999</v>
+        <v>48.213719392500003</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
@@ -1428,7 +1418,7 @@
       </c>
       <c r="E77">
         <f>D72*F72+D73*F73</f>
-        <v>8.2875000000000004E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="P77" t="s">
         <v>64</v>
@@ -1444,7 +1434,7 @@
       </c>
       <c r="E79">
         <f>POWER(E75/(E76*E77), 1/4)</f>
-        <v>330.76460511360722</v>
+        <v>340.98418202558128</v>
       </c>
       <c r="F79" t="s">
         <v>38</v>
@@ -1460,7 +1450,7 @@
     <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E80">
         <f>E79-273</f>
-        <v>57.764605113607217</v>
+        <v>67.984182025581276</v>
       </c>
       <c r="F80" t="s">
         <v>39</v>
@@ -1499,7 +1489,7 @@
       </c>
       <c r="R85">
         <f>E75</f>
-        <v>56.244844392499999</v>
+        <v>48.213719392500003</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.2">
@@ -1508,7 +1498,7 @@
       </c>
       <c r="E86">
         <f>E77*E76*E79^4</f>
-        <v>56.244844392499964</v>
+        <v>48.213719392499918</v>
       </c>
       <c r="O86" t="s">
         <v>57</v>
@@ -1524,14 +1514,14 @@
       </c>
       <c r="E87">
         <f>$J$29*$L$29*$F$47+$J$30*$L$30*0.5*$T$77+$L$31*$J$31*0.5*$T$77+$L$32*$J$32*$F$46*2/($F$47+2*$F$46+$T$77)</f>
-        <v>46.636631751379582</v>
+        <v>37.569726868771227</v>
       </c>
       <c r="O87" t="s">
         <v>76</v>
       </c>
       <c r="R87">
         <f>$J$29*$L$29*$F$47+$J$30*$L$30*0.5*$T$77+$L$31*$J$31*0.5*$T$77+$L$32*$J$32*$F$46*2/($F$47+2*$F$46+$T$77)</f>
-        <v>46.636631751379582</v>
+        <v>37.569726868771227</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.2">
@@ -1540,14 +1530,14 @@
       </c>
       <c r="E88">
         <f>(E86-E85)/E87</f>
-        <v>1.1220652613050681</v>
+        <v>1.1790934639272441</v>
       </c>
       <c r="O88" t="s">
         <v>77</v>
       </c>
       <c r="R88">
         <f>(R86-R85)/R87</f>
-        <v>-1.1220652613050688</v>
+        <v>-1.1790934639272463</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.2">
@@ -1556,13 +1546,13 @@
       </c>
       <c r="E90">
         <f>-1/E87</f>
-        <v>-2.1442371853332191E-2</v>
+        <v>-2.6617175139253452E-2</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E92">
         <f>EXP(E90*5)</f>
-        <v>0.89833533216359573</v>
+        <v>0.87538991416245404</v>
       </c>
     </row>
   </sheetData>
